--- a/output/且慢/03_康力泉_且慢.xlsx
+++ b/output/且慢/03_康力泉_且慢.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="康力泉_交易记录" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -73,7 +73,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>2019-03-22</t>
+    <t>2019-03-25</t>
   </si>
   <si>
     <t>2019-03-28</t>
@@ -181,7 +181,7 @@
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>21:50:20</t>
+    <t>14:59:00</t>
   </si>
   <si>
     <t>11:51:25</t>
@@ -253,9 +253,6 @@
     <t>13:07:10</t>
   </si>
   <si>
-    <t>14:59:00</t>
-  </si>
-  <si>
     <t>11:59:28</t>
   </si>
   <si>
@@ -391,13 +388,13 @@
     <t>建信中证500指数增强A</t>
   </si>
   <si>
-    <t>华宝标普石油指数A</t>
+    <t>华宝油气</t>
   </si>
   <si>
     <t>交银中证海外中国互联网指数</t>
   </si>
   <si>
-    <t>富国中证红利指数增强A</t>
+    <t>富国中证红利指数增强</t>
   </si>
   <si>
     <t>广发中证环保ETF联接A</t>
@@ -409,7 +406,7 @@
     <t>广发创业板ETF联接A</t>
   </si>
   <si>
-    <t>广发养老指数A</t>
+    <t>广发中证养老</t>
   </si>
   <si>
     <t>易方达创业板ETF联接A</t>
@@ -421,7 +418,7 @@
     <t>华夏恒生ETF联接A</t>
   </si>
   <si>
-    <t>易方达安心债券A</t>
+    <t>易方达安心回报债券A</t>
   </si>
   <si>
     <t>广发医药卫生联接A</t>
@@ -430,7 +427,7 @@
     <t>广发中证全指金融地产联接A</t>
   </si>
   <si>
-    <t>南方原油A</t>
+    <t>南方原油</t>
   </si>
   <si>
     <t>博时标普500ETF联接A</t>
@@ -442,7 +439,7 @@
     <t>广发纯债债券A</t>
   </si>
   <si>
-    <t>南方通利A</t>
+    <t>南方通利债券A</t>
   </si>
   <si>
     <t>买入</t>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>卖出</t>
+  </si>
+  <si>
+    <t>托管转出</t>
   </si>
   <si>
     <t>康力泉_且慢</t>
@@ -1434,13 +1434,13 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2">
         <v>1.047</v>
@@ -1496,13 +1496,13 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3">
         <v>1.0523</v>
@@ -1558,13 +1558,13 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4">
         <v>0.8139999999999999</v>
@@ -1620,13 +1620,13 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5">
         <v>0.9429999999999999</v>
@@ -1682,13 +1682,13 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6">
         <v>1.8761</v>
@@ -1744,13 +1744,13 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <v>0.453</v>
@@ -1806,13 +1806,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8">
         <v>1.1296</v>
@@ -1868,13 +1868,13 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9">
         <v>1.9407</v>
@@ -1930,13 +1930,13 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10">
         <v>1.11</v>
@@ -1992,13 +1992,13 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11">
         <v>1.076</v>
@@ -2054,13 +2054,13 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12">
         <v>0.376</v>
@@ -2116,13 +2116,13 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <v>0.5482</v>
@@ -2178,13 +2178,13 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14">
         <v>0.732</v>
@@ -2240,13 +2240,13 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <v>1.921</v>
@@ -2302,13 +2302,13 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16">
         <v>0.543</v>
@@ -2364,13 +2364,13 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17">
         <v>0.9048</v>
@@ -2426,13 +2426,13 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18">
         <v>0.539</v>
@@ -2488,13 +2488,13 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19">
         <v>0.9424</v>
@@ -2550,13 +2550,13 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20">
         <v>1.089</v>
@@ -2612,13 +2612,13 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21">
         <v>1.6629</v>
@@ -2674,13 +2674,13 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22">
         <v>1.155</v>
@@ -2736,13 +2736,13 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23">
         <v>0.378</v>
@@ -2798,13 +2798,13 @@
         <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24">
         <v>1.087</v>
@@ -2860,13 +2860,13 @@
         <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25">
         <v>0.9917</v>
@@ -2922,13 +2922,13 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26">
         <v>0.375</v>
@@ -2984,13 +2984,13 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27">
         <v>1.101</v>
@@ -3046,13 +3046,13 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28">
         <v>0.9484</v>
@@ -3108,13 +3108,13 @@
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29">
         <v>0.9977</v>
@@ -3170,13 +3170,13 @@
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30">
         <v>0.9925</v>
@@ -3232,13 +3232,13 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31">
         <v>1.4493</v>
@@ -3294,13 +3294,13 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32">
         <v>1.4496</v>
@@ -3356,13 +3356,13 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33">
         <v>1.112</v>
@@ -3418,13 +3418,13 @@
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34">
         <v>0.551</v>
@@ -3480,13 +3480,13 @@
         <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35">
         <v>0.391</v>
@@ -3542,13 +3542,13 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36">
         <v>0.9738</v>
@@ -3604,13 +3604,13 @@
         <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37">
         <v>1.093</v>
@@ -3666,13 +3666,13 @@
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38">
         <v>0.9669</v>
@@ -3728,13 +3728,13 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39">
         <v>1.678</v>
@@ -3790,13 +3790,13 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40">
         <v>1.9367</v>
@@ -3852,13 +3852,13 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41">
         <v>0.8232</v>
@@ -3914,13 +3914,13 @@
         <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42">
         <v>1.9291</v>
@@ -3976,13 +3976,13 @@
         <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43">
         <v>1.054</v>
@@ -4038,13 +4038,13 @@
         <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44">
         <v>0.3355</v>
@@ -4100,13 +4100,13 @@
         <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45">
         <v>1.0894</v>
@@ -4162,13 +4162,13 @@
         <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46">
         <v>1.0894</v>
@@ -4221,16 +4221,16 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H47">
         <v>0.984</v>
@@ -4283,16 +4283,16 @@
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H48">
         <v>0.984</v>
@@ -4345,16 +4345,16 @@
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H49">
         <v>0.8646</v>
@@ -4407,16 +4407,16 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50">
         <v>0.7161999999999999</v>
@@ -4469,16 +4469,16 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H51">
         <v>2.1254</v>
@@ -4531,16 +4531,16 @@
         <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52">
         <v>0.7161999999999999</v>
@@ -4593,16 +4593,16 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53">
         <v>2.2795</v>
@@ -4655,16 +4655,16 @@
         <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54">
         <v>0.986</v>
@@ -4717,16 +4717,16 @@
         <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55">
         <v>0.978</v>
@@ -4779,16 +4779,16 @@
         <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56">
         <v>0.978</v>
@@ -4841,16 +4841,16 @@
         <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57">
         <v>0.649</v>
@@ -4903,16 +4903,16 @@
         <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H58">
         <v>1.1231</v>
@@ -4965,16 +4965,16 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H59">
         <v>1.3007</v>
@@ -5027,16 +5027,16 @@
         <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60">
         <v>1.3592</v>
@@ -5089,16 +5089,16 @@
         <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61">
         <v>0.913</v>
@@ -5151,16 +5151,16 @@
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H62">
         <v>1.3592</v>
@@ -5213,16 +5213,16 @@
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H63">
         <v>0.913</v>
@@ -5275,16 +5275,16 @@
         <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64">
         <v>0.867</v>
@@ -5337,16 +5337,16 @@
         <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65">
         <v>1.2474</v>
@@ -5399,16 +5399,16 @@
         <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H66">
         <v>1.9434</v>
@@ -5461,13 +5461,13 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G67" t="s">
         <v>145</v>
@@ -5523,13 +5523,13 @@
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
         <v>145</v>
@@ -5585,16 +5585,16 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H69">
         <v>1.0286</v>
@@ -5647,16 +5647,16 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H70">
         <v>0.972</v>
@@ -5709,16 +5709,16 @@
         <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H71">
         <v>2.3877</v>
@@ -5771,16 +5771,16 @@
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H72">
         <v>1.216</v>
@@ -5833,16 +5833,16 @@
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H73">
         <v>1.19</v>
@@ -5895,16 +5895,16 @@
         <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H74">
         <v>1.765</v>
@@ -5957,16 +5957,16 @@
         <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H75">
         <v>1.1004</v>
